--- a/week5/Experiment_result.xlsx
+++ b/week5/Experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na742\STEP\STEP\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D156219-388F-46C2-A67B-E8E90F15E775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167298AF-1732-4951-A597-C35D99966C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11235" xr2:uid="{7D2348DB-8596-4B0C-8021-B1DC73C0325D}"/>
   </bookViews>

--- a/week5/Experiment_result.xlsx
+++ b/week5/Experiment_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na742\STEP\STEP\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167298AF-1732-4951-A597-C35D99966C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6966B47-DB28-443B-9DB8-F874EBF45C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11235" xr2:uid="{7D2348DB-8596-4B0C-8021-B1DC73C0325D}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
-    <t>cross</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>annealing</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -44,6 +40,10 @@
   </si>
   <si>
     <t>✅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-opt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -421,16 +421,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>46576.49</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>826260.82</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>48627.02</v>
@@ -464,10 +464,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>45982.1</v>
